--- a/biology/Botanique/Terminalia_bentzoe/Terminalia_bentzoe.xlsx
+++ b/biology/Botanique/Terminalia_bentzoe/Terminalia_bentzoe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Terminalia bentzoe est une espèce endémique des Mascareignes (La Réunion, île Maurice et Rodrigues) de la famille des Combretaceae.
 </t>
@@ -513,25 +525,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom
-A La Réunion, il est nommé benjoin ou benjoin-pays, bien qu'il ne produise pas de vrai baume de benjoin, qui est la résine extraite de diverses plantes du genre Styrax. Ce nom vernaculaire viendrait de ce qu'au XVIIe siècle, la résine odorante de l'arbre fut confondue avec le baume de benjoin du Tonkin ou du Laos.
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A La Réunion, il est nommé benjoin ou benjoin-pays, bien qu'il ne produise pas de vrai baume de benjoin, qui est la résine extraite de diverses plantes du genre Styrax. Ce nom vernaculaire viendrait de ce qu'au XVIIe siècle, la résine odorante de l'arbre fut confondue avec le baume de benjoin du Tonkin ou du Laos.
 Terminalia bentzoe a pour synonyme botanique :
 Croton bentzoe L.
 Terminalis angustifolia Jacq.
 Terminalia mauritiana Lam.
-Terminalia benzoin L. f.
-Aspect et forme générale
-L'aspect est semblable à d'autres Terminalia tels que le badamier : les branches sont régulièrement étagées et presque horizontales, formant une frondaison pyramidale assez peu dense.
-Taille
-L’arbre peut mesurer jusqu'à 30 mètres de haut. Le tronc peut mesurer jusqu’au 1 mètre de diamètre.
-Écorce
-L'écorce est beige foncé à brune, avec des parties parfois grises. Par endroits, l'écorce est fissurée et de petites plaques se détachent.
-Feuilles
-Fleurs
-Les fleurs, regroupées en épis axillaire, sont de couleur blanche ou blanc jaunâtre.
-Fruits
-Le fruit est une samare ovale d'environ 2 cm de diamètre, de couleur verte sur l'arbre, le péricarpe formant deux larges ailes entourant complètement le centre arrondi.
-</t>
+Terminalia benzoin L. f.</t>
         </is>
       </c>
     </row>
@@ -556,12 +561,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biotope</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Benjoin pays pousse en basse ou moyenne altitude, dans des zones humides ou semi-sèches. Il a peu d'exigence sur la qualité du sol et le niveau de pluviométrie.
+          <t>Aspect et forme générale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aspect est semblable à d'autres Terminalia tels que le badamier : les branches sont régulièrement étagées et presque horizontales, formant une frondaison pyramidale assez peu dense.
 </t>
         </is>
       </c>
@@ -587,12 +598,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Usage</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'écorce du benjoin-pays est localement utilisée sous forme de décoction pour ses propriétés médicinales.
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’arbre peut mesurer jusqu'à 30 mètres de haut. Le tronc peut mesurer jusqu’au 1 mètre de diamètre.
 </t>
         </is>
       </c>
@@ -618,10 +635,189 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Écorce</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce est beige foncé à brune, avec des parties parfois grises. Par endroits, l'écorce est fissurée et de petites plaques se détachent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Terminalia_bentzoe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terminalia_bentzoe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs, regroupées en épis axillaire, sont de couleur blanche ou blanc jaunâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terminalia_bentzoe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terminalia_bentzoe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une samare ovale d'environ 2 cm de diamètre, de couleur verte sur l'arbre, le péricarpe formant deux larges ailes entourant complètement le centre arrondi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Terminalia_bentzoe</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terminalia_bentzoe</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Benjoin pays pousse en basse ou moyenne altitude, dans des zones humides ou semi-sèches. Il a peu d'exigence sur la qualité du sol et le niveau de pluviométrie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Terminalia_bentzoe</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terminalia_bentzoe</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Usage</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce du benjoin-pays est localement utilisée sous forme de décoction pour ses propriétés médicinales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Terminalia_bentzoe</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terminalia_bentzoe</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Menace</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Le benjoin pays est en danger critique d'extinction.
 </t>
